--- a/Datasheet_FG_sorting.xlsx
+++ b/Datasheet_FG_sorting.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20386"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edusacre\ownCloud\PhD\SCIENCES\Manips\FN_identification_key\Datasheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edusacre\ownCloud\GitHub\FG_Identification_Key\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66B2B58-26A0-40F5-8E57-B1DCC20E3EEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7517AD4-4D43-4866-ACB3-10C0FCB61B88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t xml:space="preserve">Date of the mission: </t>
   </si>
@@ -212,6 +212,30 @@
   </si>
   <si>
     <t>5- Send us the file Preferably by with a link to send using the website: https://filevert.fr/ Send the link to: plasfito@4pscienseas.org</t>
+  </si>
+  <si>
+    <t>HDPE_fish_box:</t>
+  </si>
+  <si>
+    <t>HDPE_seafood_box:</t>
+  </si>
+  <si>
+    <t>PS_fish_box:</t>
+  </si>
+  <si>
+    <t>Gillnet_mounting_rope</t>
+  </si>
+  <si>
+    <t>Gillnet_mounting_rope:</t>
+  </si>
+  <si>
+    <t>HDPE_fish_box</t>
+  </si>
+  <si>
+    <t>PS_fish_box</t>
+  </si>
+  <si>
+    <t>HDPE_seafood_box</t>
   </si>
 </sst>
 </file>
@@ -532,15 +556,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -578,12 +593,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -593,44 +653,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -949,7 +973,7 @@
   <dimension ref="B2:F30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,17 +987,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="37"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="17"/>
     </row>
     <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
@@ -982,168 +1006,168 @@
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="23"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="21"/>
+      <c r="C6" s="18"/>
     </row>
     <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="21"/>
+      <c r="C7" s="18"/>
     </row>
     <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="21"/>
+      <c r="C8" s="18"/>
     </row>
     <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="21"/>
+      <c r="C9" s="18"/>
     </row>
     <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="22"/>
+      <c r="C10" s="19"/>
     </row>
     <row r="11" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="22"/>
+      <c r="C11" s="19"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="37"/>
     </row>
     <row r="16" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="28"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="40"/>
     </row>
     <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="29"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="30"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="29"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="29"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="30"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="29"/>
     </row>
     <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="30"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="29"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="29"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="30"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="29"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="29"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="30"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="29"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="29"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="30"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="29"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="29"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="30"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="29"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="32"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="35"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="39"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="41"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="26"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="30"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="29"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="29"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="30"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="36"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="38"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="23"/>
     </row>
     <row r="29" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="30"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="29"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="33"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="35"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="32"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Ud/CZALaUs20XXOnkUXcrV/WL633cl7rtk+oJYePvU4/EzxcNLjaiqqm6XdeutiPM/N7439A1bGxZ5+GCfjTLw==" saltValue="ztaMgRwaGDGYARyBG9eZLA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
@@ -1163,74 +1187,88 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8290A42A-50D9-4AA7-800B-A27EC3BE940A}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="14" width="20.7109375" style="19" customWidth="1"/>
-    <col min="15" max="16384" width="11.42578125" style="19"/>
+    <col min="1" max="4" width="20.7109375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="16" customWidth="1"/>
+    <col min="6" max="18" width="20.7109375" style="16" customWidth="1"/>
+    <col min="19" max="16384" width="11.42578125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="J1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="L1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="N1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="O1" s="14" t="s">
         <v>34</v>
       </c>
+      <c r="P1" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="oJEfFaQG/TwZ0+1t0hu3v4nYEEs422Uz7Qgcvt7AlOz+FDpZwxzWchw+wBWpjPW0/lKdSMBPRS24bFt37LgWcQ==" saltValue="3iAGRX39MZkr5WZ0N2KQRQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="idhnYBTK/P/lizT6CqrscNXTJHFdYwb9PSMyJR9Kt+Rr6nEBn1gqeoN/xqB7Gw76tGqrjoXf1y3CRHMK+g/dSw==" saltValue="qcRCYiMIluJoTy36LDCtzA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C8D223-A95E-457C-BABD-5A63D352F560}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,99 +1277,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="12"/>
     </row>
     <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="16"/>
+      <c r="B3" s="13"/>
     </row>
     <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="13"/>
     </row>
     <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="16"/>
+      <c r="B5" s="13"/>
     </row>
     <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="13"/>
+    </row>
+    <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="16"/>
-    </row>
-    <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="B7" s="13"/>
+    </row>
+    <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="16"/>
-    </row>
-    <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="B8" s="13"/>
+    </row>
+    <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="16"/>
-    </row>
-    <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="B9" s="13"/>
+    </row>
+    <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="16"/>
-    </row>
-    <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="B10" s="13"/>
+    </row>
+    <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="16"/>
-    </row>
-    <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="B11" s="13"/>
+    </row>
+    <row r="12" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="16"/>
-    </row>
-    <row r="12" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="B12" s="13"/>
+    </row>
+    <row r="13" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="16"/>
-    </row>
-    <row r="13" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="B13" s="13"/>
+    </row>
+    <row r="14" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="16"/>
-    </row>
-    <row r="14" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="B14" s="13"/>
+    </row>
+    <row r="15" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="16"/>
-    </row>
-    <row r="15" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="B15" s="13"/>
+    </row>
+    <row r="16" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="16"/>
+      <c r="B16" s="13"/>
+    </row>
+    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="13"/>
+    </row>
+    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="13"/>
+    </row>
+    <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="13"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XfUg1xYtmPCdp5uGtGfnMS3EVrX+/IJ/2x3oQce+fFrSjyLyRcEG4vlw50By3WdgMMC+wa12hs/RCv0sTUo/RA==" saltValue="kp9D1AOiM/6nD8Y7Rcz8gw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OJewte4ZAclxRRLjjn5nvYJq0vmOn8cJv5SakIbkVcXL1fyENc/R73ssLkhdK7bDsg3fLWsRtuYEMSV0StBQIw==" saltValue="O8gWemn84hwuIE5pJaXwoA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1406,20 +1468,20 @@
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="41" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+      <c r="A14" s="41"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="41" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+      <c r="A17" s="41"/>
     </row>
     <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
